--- a/resources/tools/wordlist_E-J/lessons/lesson-9.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-9.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1224 +436,1224 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>from...</t>
+          <t>good child</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>～から</t>
+          <t>いい子|いいこ</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>by all means</t>
+          <t>color</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>是非|ぜひ</t>
+          <t>色|いろ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>by the way</t>
+          <t>boxed lunch</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ところで</t>
+          <t>お弁当|おべんとう</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>all</t>
+          <t>Kabuki; traditional Japanese theatrical art</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>みんな</t>
+          <t>歌舞伎|かぶき</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>already</t>
+          <t>guitar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>もう</t>
+          <t>ギター</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>last year</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>青い|あおい</t>
+          <t>去年|きょねん</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>medicine</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>赤い|あかい</t>
+          <t>薬|くすり</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>to take medicine</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>黒い|くろい</t>
+          <t>薬を飲む|くすりをのむ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lonely</t>
+          <t>concert</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>寂しい|さびしい</t>
+          <t>コンサート</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>near future</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>白い|しろい</t>
+          <t>今度|こんど</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>essay; composition</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>若い|わかい</t>
+          <t>作文|さくぶん</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mean-spirited</t>
+          <t>exam</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>意地悪|いじわる(な)</t>
+          <t>試験|しけん</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>ski</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>黒い|くろい</t>
+          <t>スキー</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>last month</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>白い|しろい</t>
+          <t>先月|せんげつ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>word; vocabulary</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>赤い|あかい</t>
+          <t>単語|たんご</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>piano</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>青い|あおい</t>
+          <t>ピアノ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>pizza</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黄色い|きいろい</t>
+          <t>ピザ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>illness; sickness</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>茶色い|ちゃいろい</t>
+          <t>病気|びょうき</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>緑／グリーン|みどり／---</t>
+          <t>青い|あおい</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>red</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>紫|むらさき</t>
+          <t>赤い|あかい</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>black</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>灰色／グレー|はいいろ／---</t>
+          <t>黒い|くろい</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>light blue</t>
+          <t>lonely</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>水色|みずいろ</t>
+          <t>寂しい|さびしい</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>white</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ピンク</t>
+          <t>白い|しろい</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>young</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>金色／ゴールド|きんいろ／---</t>
+          <t>若い|わかい</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>silver</t>
+          <t>mean-spirited</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>銀色／シルバー|ぎんいろ／---</t>
+          <t>意地悪|いじわる(な)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>to dance</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>色|いろ</t>
+          <t>踊る|おどる</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>good child</t>
+          <t>(something) ends</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>いい子|いいこ</t>
+          <t>終わる|おわる</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>to be popular</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>色|いろ</t>
+          <t>人気がある|にんきがある</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>boxed lunch</t>
+          <t>(something) begins</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>お弁当|おべんとう</t>
+          <t>始まる|はじまる</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kabuki; traditional Japanese theatrical art</t>
+          <t>to play (a string instrument or piano)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>歌舞伎|かぶき</t>
+          <t>弾く|ひく</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>guitar</t>
+          <t>to get (from somebody)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ギター</t>
+          <t>もらう</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>last year</t>
+          <t>to memorize</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>去年|きょねん</t>
+          <t>覚える|おぼえる</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>medicine</t>
+          <t>to appear; to attend; to exit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>薬|くすり</t>
+          <t>出る|でる</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>to take medicine</t>
+          <t>to do physical exercises</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>薬を飲む|くすりをのむ</t>
+          <t>運動する|うんどうする</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>concert</t>
+          <t>to take a walk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>コンサート</t>
+          <t>散歩する|さんぽする</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>near future</t>
+          <t>from...</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>今度|こんど</t>
+          <t>～から</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>essay; composition</t>
+          <t>by all means</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>作文|さくぶん</t>
+          <t>是非|ぜひ</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>exam</t>
+          <t>by the way</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>試験|しけん</t>
+          <t>ところで</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ski</t>
+          <t>all</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>スキー</t>
+          <t>みんな</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>last month</t>
+          <t>already</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>先月|せんげつ</t>
+          <t>もう</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>word; vocabulary</t>
+          <t>one</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>単語|たんご</t>
+          <t>一つ|ひとつ</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>piano</t>
+          <t>two</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ピアノ</t>
+          <t>二つ|ふたつ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>pizza</t>
+          <t>three</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ピザ</t>
+          <t>三つ|みっつ</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>illness; sickness</t>
+          <t>four</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>病気|びょうき</t>
+          <t>四つ|よっつ</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>to dance</t>
+          <t>five</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>踊る|おどる</t>
+          <t>五つ|いつつ</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>(something) ends</t>
+          <t>six</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>終わる|おわる</t>
+          <t>六つ|むっつ</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>to be popular</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>人気がある|にんきがある</t>
+          <t>七つ|ななつ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>(something) begins</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>始まる|はじまる</t>
+          <t>八つ|やっつ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>to play (a string instrument or piano)</t>
+          <t>nine</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>弾く|ひく</t>
+          <t>九つ|ここのつ</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>to get (from somebody)</t>
+          <t>ten</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>もらう</t>
+          <t>十|とお</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>to memorize</t>
+          <t>black</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>覚える|おぼえる</t>
+          <t>黒い|くろい</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>to appear; to attend; to exit</t>
+          <t>white</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>出る|でる</t>
+          <t>白い|しろい</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>to do physical exercises</t>
+          <t>red</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>運動する|うんどうする</t>
+          <t>赤い|あかい</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>to take a walk</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>散歩する|さんぽする</t>
+          <t>青い|あおい</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>red bag</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>赤いかばん</t>
+          <t>黄色い|きいろい</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>I like red the best.</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>赤がいちばん好きです。</t>
+          <t>茶色い|ちゃいろい</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>black cat</t>
+          <t>green</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>黒猫|くろねこ</t>
+          <t>緑／グリーン|みどり／---</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>green sweater</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>緑／グリーンのセーター</t>
+          <t>紫|むらさき</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Your face looks pale.</t>
+          <t>gray</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>顔が青いですね。|かおがあおいですな。</t>
+          <t>灰色／グレー|はいいろ／---</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>black and white picture</t>
+          <t>light blue</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>白黒の写真|しろくろのしゃしん</t>
+          <t>水色|みずいろ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mary has blonde hair.</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>メアリーさんは金髪です。|メアリーさんはきんぱつです。</t>
+          <t>ピンク</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>gold</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>一つ|ひとつ</t>
+          <t>金色／ゴールド|きんいろ／---</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>silver</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>二つ|ふたつ</t>
+          <t>銀色／シルバー|ぎんいろ／---</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>color</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>三つ|みっつ</t>
+          <t>色|いろ</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>red bag</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>四つ|よっつ</t>
+          <t>赤いかばん</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>I like red the best.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>五つ|いつつ</t>
+          <t>赤がいちばん好きです。</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>black cat</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>六つ|むっつ</t>
+          <t>黒猫|くろねこ</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>green sweater</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>七つ|ななつ</t>
+          <t>緑／グリーンのセーター</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>eight</t>
+          <t>Your face looks pale.</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>八つ|やっつ</t>
+          <t>顔が青いですね。|かおがあおいですね。</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>nine</t>
+          <t>black and white picture</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>九つ|ここのつ</t>
+          <t>白黒の写真|しろくろのしゃしん</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ten</t>
+          <t>Mary has blonde hair.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>十|とお</t>
+          <t>メアリーさんは金髪です。|メアリーさんはきんぱつです。</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>A.M.</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>雨|あめ</t>
+          <t>午前|ごぜん</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>rainy season</t>
+          <t>P.M.; in the afternoon</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>雨期|うき</t>
+          <t>午後|ごご</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>rainy season (East Asia)</t>
+          <t>in the morning</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>梅雨|つゆ</t>
+          <t>午前中|ごぜんちゅう</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>to write</t>
+          <t>noon</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>書く|かく</t>
+          <t>正午|しょうご</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>dictionary</t>
+          <t>after...</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>辞書|じしょ</t>
+          <t>～の後|～のあと</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>textbook</t>
+          <t>later</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>教科書|きょうかしょ</t>
+          <t>後で|あとで</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>back; behind</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>図書館|としょかん</t>
+          <t>後ろ|うしろ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>friend</t>
+          <t>lastly</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>友だち|ともだち</t>
+          <t>最後に|さいごに</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>best friend</t>
+          <t>before; front</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>親友|しんゆう</t>
+          <t>前|まえ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>friend (formal)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>友人|ゆうじん</t>
+          <t>名前|なまえ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>friendship</t>
+          <t>advance sale</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>友情|ゆうじょう</t>
+          <t>前売り|まえうり</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>to speak</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>話す|はなす</t>
+          <t>名前|なまえ</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>talk; story</t>
+          <t>famous</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>話|はなし</t>
+          <t>有名な|ゆうめいな</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>name card</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>電話|でんわ</t>
+          <t>名刺|めいし</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>conversation</t>
+          <t>full name</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>会話|かいわ</t>
+          <t>氏名|しめい</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>little</t>
+          <t>place name</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>少し|すこし</t>
+          <t>地名|ちめい</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>few</t>
+          <t>white</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>少ない|すくない</t>
+          <t>白い|しろい</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>a little</t>
+          <t>blank sheet</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>少々|しょうしょう</t>
+          <t>白紙|はくし</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>white color</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>少女|しょうじょ</t>
+          <t>白|しろ</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>swan</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>少年|しょうねん</t>
+          <t>白鳥|はくちょう</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A.M.</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>午前|ごぜん</t>
+          <t>雨|あめ</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>P.M.; in the afternoon</t>
+          <t>rainy season</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>午後|ごご</t>
+          <t>雨期|うき</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>in the morning</t>
+          <t>rainy season (East Asia)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>午前中|ごぜんちゅう</t>
+          <t>梅雨|つゆ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>noon</t>
+          <t>to write</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>正午|しょうご</t>
+          <t>書く|かく</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>after...</t>
+          <t>dictionary</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>～の後|～のあと</t>
+          <t>辞書|じしょ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>later</t>
+          <t>textbook</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>後で|あとで</t>
+          <t>教科書|きょうかしょ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>back; behind</t>
+          <t>library</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>後ろ|うしろ</t>
+          <t>図書館|としょかん</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>lastly</t>
+          <t>friend</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>最後に|さいごに</t>
+          <t>友だち|ともだち</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>before; front</t>
+          <t>best friend</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>前|まえ</t>
+          <t>親友|しんゆう</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>friend (formal)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>名前|なまえ</t>
+          <t>友人|ゆうじん</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>advance sale</t>
+          <t>friendship</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>前売り|まえうり</t>
+          <t>友情|ゆうじょう</t>
         </is>
       </c>
     </row>
@@ -1712,304 +1780,304 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Thank you for everything.</t>
+          <t>to speak</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>いろいろおせわになりました。</t>
+          <t>話す|はなす</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Please take care of yourself.</t>
+          <t>talk; story</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>体に気をつけてください。</t>
+          <t>話|はなし</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>I am looking forward to seeing you.</t>
+          <t>telephone</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>お会いできるのを楽しみにしています。</t>
+          <t>電話|でんわ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Congratulations on...</t>
+          <t>conversation</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>～おめでとう（ございます）。</t>
+          <t>会話|かいわ</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Happy birthday.</t>
+          <t>little</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>（お）たんじょうびおめでとう。</t>
+          <t>少し|すこし</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>few</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>名前|なまえ</t>
+          <t>少ない|すくない</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>famous</t>
+          <t>a little</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>有名な|ゆうめいな</t>
+          <t>少々|しょうしょう</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>name card</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>名刺|めいし</t>
+          <t>少女|しょうじょ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>full name</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>氏名|しめい</t>
+          <t>少年|しょうねん</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>place name</t>
+          <t>old (for things)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>地名|ちめい</t>
+          <t>古い|ふるい</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>secondhand</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>白い|しろい</t>
+          <t>中古|ちゅうこ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>blank sheet</t>
+          <t>ancient times</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>白紙|はくし</t>
+          <t>古代|こだい</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>white color</t>
+          <t>to know</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>白|しろ</t>
+          <t>知る|しる</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>swan</t>
+          <t>acquaintance (formal)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>白鳥|はくちょう</t>
+          <t>知人|ちじん</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>old (for things)</t>
+          <t>acquaintance</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>古い|ふるい</t>
+          <t>知り合い|しりあい</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>secondhand</t>
+          <t>to come</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>中古|ちゅうこ</t>
+          <t>来る|くる</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ancient times</t>
+          <t>to come (long-form)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>古代|こだい</t>
+          <t>来ます|きます</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>to know</t>
+          <t>not to come</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>知る|しる</t>
+          <t>来ない|こない</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>acquaintance (formal)</t>
+          <t>next week</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>知人|ちじん</t>
+          <t>来週|らいしゅう</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>acquaintance</t>
+          <t>visit to Japan</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>知り合い|しりあい</t>
+          <t>来日|らいにち</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>to come</t>
+          <t>Thank you for everything.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>来る|くる</t>
+          <t>いろいろおせわになりました。</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>to come (long-form)</t>
+          <t>Please take care of yourself.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>来ます|きます</t>
+          <t>体に気をつけてください。</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>not to come</t>
+          <t>I am looking forward to seeing you.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>来ない|こない</t>
+          <t>お会いできるのを楽しみにしています。</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>next week</t>
+          <t>Congratulations on...</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>来週|らいしゅう</t>
+          <t>～おめでとう（ございます）。</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>visit to Japan</t>
+          <t>Happy birthday.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>来日|らいにち</t>
+          <t>（お）たんじょうびおめでとう。</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-9.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-9.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2078,6 +2078,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>